--- a/presentation/Finale/statistiques/password_stats.xlsx
+++ b/presentation/Finale/statistiques/password_stats.xlsx
@@ -137,8 +137,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9252263156224609E-4"/>
-          <c:y val="3.783751584009358E-2"/>
+          <c:x val="4.9252263156224631E-4"/>
+          <c:y val="3.7837515840093594E-2"/>
           <c:w val="0.6032176029809746"/>
           <c:h val="0.96083354092430329"/>
         </c:manualLayout>
@@ -252,7 +252,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -272,7 +272,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-CH" b="1">
+              <a:rPr lang="fr-CH">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -289,12 +289,6 @@
               <a:t>Longueur des mots de passe</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="fr-CH"/>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
@@ -309,10 +303,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$B$15</c:f>
+              <c:f>Feuil1!$B$6:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -342,16 +336,82 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$6:$D$15</c:f>
+              <c:f>Feuil1!$D$6:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0.10055658785983992</c:v>
                 </c:pt>
@@ -381,17 +441,83 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.1003467566989847E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7363674871612237E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0271167521276627E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1125858371817249E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9562744691503592E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2814645929543122E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4266188670330625E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6058507208307029E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1371143148031243E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0998207513739829E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0332735837913281E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7842785787007811E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7842785787007811E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.1371143148031247E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.352835736102343E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2489950050905468E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5685571574015624E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5685571574015624E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5685571574015624E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1371143148031247E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7842785787007812E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7842785787007812E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.352835736102343E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls/>
-        <c:axId val="132495616"/>
-        <c:axId val="132497408"/>
+        <c:axId val="89187456"/>
+        <c:axId val="89188992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132495616"/>
+        <c:axId val="89187456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,14 +543,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132497408"/>
+        <c:crossAx val="89188992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132497408"/>
+        <c:axId val="89188992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +576,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132495616"/>
+        <c:crossAx val="89187456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -503,20 +629,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -822,7 +948,7 @@
   <dimension ref="B5:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D15"/>
+      <selection activeCell="D6" sqref="D6:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/presentation/Finale/statistiques/password_stats.xlsx
+++ b/presentation/Finale/statistiques/password_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="19572" windowHeight="8184"/>
+    <workbookView xWindow="96" yWindow="48" windowWidth="19572" windowHeight="8184" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -137,8 +137,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9252263156224631E-4"/>
-          <c:y val="3.7837515840093594E-2"/>
+          <c:x val="4.9252263156224652E-4"/>
+          <c:y val="3.7837515840093608E-2"/>
           <c:w val="0.6032176029809746"/>
           <c:h val="0.96083354092430329"/>
         </c:manualLayout>
@@ -252,7 +252,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -268,30 +268,88 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-CH">
+              <a:rPr lang="fr-CH" sz="2400" b="1" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>5'604'506 mots de passe</a:t>
+              <a:t>Longueur des mots de passe décryptés</a:t>
             </a:r>
+            <a:endParaRPr lang="fr-CH" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-CH" b="0"/>
-              <a:t>Longueur des mots de passe</a:t>
+              <a:rPr lang="fr-CH" sz="2000" b="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>5'604'506 mots de passe décryptés</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21288554468074669"/>
+          <c:y val="2.0219526285384173E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -512,12 +570,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89187456"/>
-        <c:axId val="89188992"/>
+        <c:axId val="101257600"/>
+        <c:axId val="104210816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89187456"/>
+        <c:axId val="101257600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,28 +586,45 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CH"/>
+                  <a:rPr lang="fr-CH" sz="2000" b="0"/>
                   <a:t>Nombre de caractères</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.360469865332254"/>
+              <c:y val="0.89481502203905616"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89188992"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104210816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89188992"/>
+        <c:axId val="104210816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,10 +637,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CH"/>
+                  <a:rPr lang="fr-CH" sz="2000" b="0"/>
                   <a:t>Pourcentage</a:t>
                 </a:r>
               </a:p>
@@ -576,20 +650,26 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89187456"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101257600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -627,22 +707,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -651,7 +736,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -947,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D37"/>
     </sheetView>
   </sheetViews>
@@ -1377,11 +1462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
